--- a/Customer Call List.xlsx
+++ b/Customer Call List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Pandas Tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Power BI\Project\Data Cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:40009_{E07D7DFE-C20E-4C0A-9299-C6166B0A5365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{890D025C-C355-436F-87C5-736415E1B8DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Call List" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>Frodo</t>
   </si>
@@ -245,12 +244,15 @@
   </si>
   <si>
     <t>Not_Useful_Column</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,19 +1087,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -1205,6 +1207,9 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
@@ -1301,6 +1306,9 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
       <c r="E8" t="s">
         <v>65</v>
       </c>
@@ -1349,6 +1357,9 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
@@ -1357,6 +1368,9 @@
       </c>
       <c r="F10" t="s">
         <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1400,6 +1414,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
@@ -1433,6 +1450,9 @@
       <c r="F13" t="s">
         <v>72</v>
       </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
@@ -1591,6 +1611,9 @@
       </c>
       <c r="F19" t="s">
         <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
